--- a/unittestdata/genreels2.xlsx
+++ b/unittestdata/genreels2.xlsx
@@ -1511,7 +1511,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>

--- a/unittestdata/genreels2.xlsx
+++ b/unittestdata/genreels2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>symbol</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>MY</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1239,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1546,6 +1549,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" ht="13.55" customHeight="1">
+      <c r="A16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/unittestdata/genreels2.xlsx
+++ b/unittestdata/genreels2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>symbol</t>
   </si>
@@ -31,49 +31,91 @@
     <t>reel5</t>
   </si>
   <si>
-    <t>WL_3</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>MY_5</t>
-  </si>
-  <si>
-    <t>MY2_5</t>
-  </si>
-  <si>
-    <t>MY</t>
+    <t>reel6</t>
+  </si>
+  <si>
+    <t>reel7</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>BH_2</t>
+  </si>
+  <si>
+    <t>BH_3</t>
+  </si>
+  <si>
+    <t>BM_2</t>
+  </si>
+  <si>
+    <t>BM_3</t>
+  </si>
+  <si>
+    <t>BM2_2</t>
+  </si>
+  <si>
+    <t>BM2_3</t>
+  </si>
+  <si>
+    <t>BL_2</t>
+  </si>
+  <si>
+    <t>BL_3</t>
+  </si>
+  <si>
+    <t>RH_2</t>
+  </si>
+  <si>
+    <t>RH_3</t>
+  </si>
+  <si>
+    <t>RM_2</t>
+  </si>
+  <si>
+    <t>RM_3</t>
+  </si>
+  <si>
+    <t>RM2_2</t>
+  </si>
+  <si>
+    <t>RM2_3</t>
+  </si>
+  <si>
+    <t>RL_2</t>
+  </si>
+  <si>
+    <t>RL_3</t>
+  </si>
+  <si>
+    <t>GH_2</t>
+  </si>
+  <si>
+    <t>GH_3</t>
+  </si>
+  <si>
+    <t>GM_2</t>
+  </si>
+  <si>
+    <t>GM_3</t>
+  </si>
+  <si>
+    <t>GM2_2</t>
+  </si>
+  <si>
+    <t>GM2_3</t>
+  </si>
+  <si>
+    <t>GL_2</t>
+  </si>
+  <si>
+    <t>GL_3</t>
   </si>
   <si>
     <t>SC</t>
+  </si>
+  <si>
+    <t>MY_3</t>
   </si>
 </sst>
 </file>
@@ -1239,14 +1281,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="8" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1268,33 +1310,45 @@
       <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1303,270 +1357,666 @@
         <v>2</v>
       </c>
       <c r="E3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="3">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.55" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="13.55" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="13.55" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="13.55" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>2</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="13.55" customHeight="1">
       <c r="A15" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
         <v>2</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="16" ht="13.55" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="3">
         <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="13.55" customHeight="1">
+      <c r="A17" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="13.55" customHeight="1">
+      <c r="A18" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" ht="13.55" customHeight="1">
+      <c r="A19" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="13.55" customHeight="1">
+      <c r="A20" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="13.55" customHeight="1">
+      <c r="A21" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="13.55" customHeight="1">
+      <c r="A22" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="13.55" customHeight="1">
+      <c r="A23" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>2</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="13.55" customHeight="1">
+      <c r="A24" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="13.55" customHeight="1">
+      <c r="A25" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="13.55" customHeight="1">
+      <c r="A26" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="13.55" customHeight="1">
+      <c r="A27" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="13.55" customHeight="1">
+      <c r="A28" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>7</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
